--- a/test_results1.xlsx
+++ b/test_results1.xlsx
@@ -131,24 +131,24 @@
     <t>https://www.alojamiento.io/all/france/provence</t>
   </si>
   <si>
+    <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
+  </si>
+  <si>
     <t>https://www.alojamiento.io/all/italy/veneto/venice</t>
   </si>
   <si>
+    <t>https://www.alojamiento.io/all/portugal/porto-district/porto</t>
+  </si>
+  <si>
     <t>https://www.alojamiento.io/all/andorra/andorra-la-vella/andorra-la-vella</t>
   </si>
   <si>
-    <t>https://www.alojamiento.io/all/portugal/porto-district/porto</t>
+    <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
   </si>
   <si>
     <t>https://www.alojamiento.io/all/portugal/algarve</t>
   </si>
   <si>
-    <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
-  </si>
-  <si>
-    <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
-  </si>
-  <si>
     <t>https://www.alojamiento.io/all/turkey/istanbul</t>
   </si>
   <si>
@@ -398,34 +398,34 @@
     <t>Valid URL</t>
   </si>
   <si>
-    <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x785416019610&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
-  </si>
-  <si>
-    <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De $156', 'De $95', 'De $101', 'De $546', 'De $239', 'De $114']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De $220', 'De $134', 'De $143', 'De $771', 'De $338', 'De $161']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De €147', 'De €89', 'De €95', 'De €516', 'De €226', 'De €108']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De £122', 'De £74', 'De £79', 'De £427', 'De £187', 'De £89']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De $242', 'De $147', 'De $156', 'De $846', 'De $371', 'De $177']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De $209', 'De $127', 'De $135', 'De $731', 'De $321', 'De $153']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De د.إ.573', 'De د.إ.347', 'De د.إ.370', 'De د.إ.2,004', 'De د.إ.879', 'De د.إ.419']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De ৳18,689', 'De ৳11,334', 'De ৳12,087', 'De ৳65,416', 'De ৳28,701', 'De ৳13,669']</t>
+    <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7c2413f19730&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+  </si>
+  <si>
+    <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7c2413f19a60&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De $130', 'De $311', 'De $91', 'De $85', 'De $22', 'De $248']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De $184', 'De $439', 'De $128', 'De $120', 'De $31', 'De $350']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De €123', 'De €294', 'De €86', 'De €80', 'De €21', 'De €234']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De £102', 'De £243', 'De £71', 'De £66', 'De £17', 'De £194']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De $202', 'De $482', 'De $141', 'De $131', 'De $34', 'De $384']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De $175', 'De $416', 'De $121', 'De $113', 'De $30', 'De $332']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De د.إ.479', 'De د.إ.1,141', 'De د.إ.333', 'De د.إ.311', 'De د.إ.81', 'De د.إ.910']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De ৳15,632', 'De ৳37,255', 'De ৳10,879', 'De ৳10,139', 'De ৳2,646', 'De ৳29,707']</t>
   </si>
   <si>
     <t>SiteURL</t>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>109</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
         <v>109</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
         <v>109</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
         <v>109</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
         <v>109</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
         <v>109</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
         <v>109</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
         <v>109</v>

--- a/test_results1.xlsx
+++ b/test_results1.xlsx
@@ -131,10 +131,19 @@
     <t>https://www.alojamiento.io/all/france/provence</t>
   </si>
   <si>
+    <t>https://www.alojamiento.io/all/italy/veneto/venice</t>
+  </si>
+  <si>
     <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
   </si>
   <si>
-    <t>https://www.alojamiento.io/all/italy/veneto/venice</t>
+    <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
+  </si>
+  <si>
+    <t>https://www.alojamiento.io/all/turkey/istanbul</t>
+  </si>
+  <si>
+    <t>https://www.alojamiento.io/all/portugal/algarve</t>
   </si>
   <si>
     <t>https://www.alojamiento.io/all/portugal/porto-district/porto</t>
@@ -143,15 +152,6 @@
     <t>https://www.alojamiento.io/all/andorra/andorra-la-vella/andorra-la-vella</t>
   </si>
   <si>
-    <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
-  </si>
-  <si>
-    <t>https://www.alojamiento.io/all/portugal/algarve</t>
-  </si>
-  <si>
-    <t>https://www.alojamiento.io/all/turkey/istanbul</t>
-  </si>
-  <si>
     <t>https://www.alojamiento.io/all/france/paris</t>
   </si>
   <si>
@@ -398,34 +398,34 @@
     <t>Valid URL</t>
   </si>
   <si>
-    <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7c2413f19730&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
-  </si>
-  <si>
-    <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7c2413f19a60&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De $130', 'De $311', 'De $91', 'De $85', 'De $22', 'De $248']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De $184', 'De $439', 'De $128', 'De $120', 'De $31', 'De $350']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De €123', 'De €294', 'De €86', 'De €80', 'De €21', 'De €234']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De £102', 'De £243', 'De £71', 'De £66', 'De £17', 'De £194']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De $202', 'De $482', 'De $141', 'De $131', 'De $34', 'De $384']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De $175', 'De $416', 'De $121', 'De $113', 'De $30', 'De $332']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De د.إ.479', 'De د.إ.1,141', 'De د.إ.333', 'De د.إ.311', 'De د.إ.81', 'De د.إ.910']</t>
-  </si>
-  <si>
-    <t>Prices displayed: ['De ৳15,632', 'De ৳37,255', 'De ৳10,879', 'De ৳10,139', 'De ৳2,646', 'De ৳29,707']</t>
+    <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x714029e95940&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+  </si>
+  <si>
+    <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=5)</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De $156', 'De $95', 'De $101', 'De $546', 'De $239', 'De $114']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De $220', 'De $134', 'De $143', 'De $771', 'De $338', 'De $161']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De €147', 'De €89', 'De €95', 'De €516', 'De €226', 'De €108']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De £122', 'De £74', 'De £79', 'De £427', 'De £187', 'De £89']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De $242', 'De $147', 'De $156', 'De $846', 'De $371', 'De $177']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De $209', 'De $127', 'De $135', 'De $731', 'De $321', 'De $153']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De د.إ.573', 'De د.إ.347', 'De د.إ.370', 'De د.إ.2,004', 'De د.إ.879', 'De د.إ.419']</t>
+  </si>
+  <si>
+    <t>Prices displayed: ['De ৳18,689', 'De ৳11,334', 'De ৳12,087', 'De ৳65,416', 'De ৳28,701', 'De ৳13,669']</t>
   </si>
   <si>
     <t>SiteURL</t>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
         <v>109</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>109</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
         <v>109</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
         <v>109</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
         <v>109</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
         <v>109</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
         <v>109</v>
